--- a/tables/international_reserves_exchange_rates1.xlsx
+++ b/tables/international_reserves_exchange_rates1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>на 1 янв. 2023 г</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>20 642</t>
   </si>
@@ -42,12 +39,6 @@
     <t>Долг страны</t>
   </si>
   <si>
-    <t>на 1 апр. 2023 г</t>
-  </si>
-  <si>
-    <t>Международная инвестиционная позиция (МИП)   (млрд. долл.)</t>
-  </si>
-  <si>
     <t>Активы Нацфонда РК</t>
   </si>
   <si>
@@ -72,24 +63,119 @@
     <t>Показатели</t>
   </si>
   <si>
-    <t xml:space="preserve">на  август
-2023 г
-</t>
-  </si>
-  <si>
     <t>На июль 2023 г.</t>
   </si>
   <si>
-    <t xml:space="preserve">на1апр.
-2023г
-</t>
+    <t>35 638</t>
+  </si>
+  <si>
+    <t>34 378</t>
+  </si>
+  <si>
+    <t>35 076</t>
+  </si>
+  <si>
+    <t>33 594</t>
+  </si>
+  <si>
+    <t>на  август</t>
+  </si>
+  <si>
+    <t>2023 г</t>
+  </si>
+  <si>
+    <t>8 502,71</t>
+  </si>
+  <si>
+    <t>12 365,26</t>
+  </si>
+  <si>
+    <t>12 498,6</t>
+  </si>
+  <si>
+    <t>23 582</t>
+  </si>
+  <si>
+    <t>23 546</t>
+  </si>
+  <si>
+    <t>19 386</t>
+  </si>
+  <si>
+    <t>58 743</t>
+  </si>
+  <si>
+    <t>55 324</t>
+  </si>
+  <si>
+    <t>55 739</t>
+  </si>
+  <si>
+    <t>59 893</t>
+  </si>
+  <si>
+    <t>Международная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инвестиционная позиция (МИП)  </t>
+  </si>
+  <si>
+    <t>(млрд. долл.)</t>
+  </si>
+  <si>
+    <t>-79,4</t>
+  </si>
+  <si>
+    <t>-74,9</t>
+  </si>
+  <si>
+    <t>-63,3</t>
+  </si>
+  <si>
+    <t>на 1 апр.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023 г.</t>
+  </si>
+  <si>
+    <t>164,15</t>
+  </si>
+  <si>
+    <t>166,5</t>
+  </si>
+  <si>
+    <t>160,6</t>
+  </si>
+  <si>
+    <t>161,4</t>
+  </si>
+  <si>
+    <t>35,6</t>
+  </si>
+  <si>
+    <t>40,3</t>
+  </si>
+  <si>
+    <t>33,2</t>
+  </si>
+  <si>
+    <t>30,7</t>
+  </si>
+  <si>
+    <t>на 1 янв.</t>
+  </si>
+  <si>
+    <t>25 263</t>
+  </si>
+  <si>
+    <t>25 317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +183,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006FC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -114,28 +258,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,216 +713,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G17" sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="27" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.25">
+      <c r="A3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2022</v>
-      </c>
-      <c r="E1">
-        <v>2023</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116.25" thickBot="1">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="57.6">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7">
-        <v>35638</v>
-      </c>
-      <c r="C3" s="7">
-        <v>34378</v>
-      </c>
-      <c r="D3" s="7">
-        <v>35076</v>
-      </c>
-      <c r="E3" s="7">
-        <v>33594</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8502.7099999999991</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12365.26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12498.6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57.6">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>23582</v>
-      </c>
-      <c r="C5" s="1">
-        <v>23546</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19386</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57.6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>58743</v>
-      </c>
-      <c r="C6" s="1">
-        <v>55324</v>
-      </c>
-      <c r="D6" s="1">
-        <v>55739</v>
-      </c>
-      <c r="E6" s="1">
-        <v>59893</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="27" thickBot="1">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="15">
         <v>-71</v>
       </c>
-      <c r="C7">
-        <v>-79.400000000000006</v>
-      </c>
-      <c r="D7">
-        <v>-74.900000000000006</v>
-      </c>
-      <c r="E7">
-        <v>-63.3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="43.2">
-      <c r="A9" t="s">
+      <c r="C8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64.5">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>164.15</v>
-      </c>
-      <c r="C9">
-        <v>166.5</v>
-      </c>
-      <c r="D9">
-        <v>160.6</v>
-      </c>
-      <c r="E9">
-        <v>161.4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>35.6</v>
-      </c>
-      <c r="C10">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D10">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="E10">
-        <v>31.4</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="73.5" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>25263</v>
-      </c>
-      <c r="E11" s="1">
-        <v>25317</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
+      <c r="D16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:G8"/>
+  <mergeCells count="26">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
